--- a/app/public/samples/voter-template.xlsx
+++ b/app/public/samples/voter-template.xlsx
@@ -397,89 +397,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>שם</v>
+        <v>מייל</v>
       </c>
       <c r="B1" t="str">
-        <v>שם משפחה</v>
+        <v>עיר</v>
       </c>
       <c r="C1" t="str">
         <v>טלפון</v>
       </c>
       <c r="D1" t="str">
-        <v>עיר</v>
+        <v>שם משפחה</v>
       </c>
       <c r="E1" t="str">
-        <v>מייל</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>דוד</v>
-      </c>
-      <c r="B2" t="str">
-        <v>כהן</v>
-      </c>
-      <c r="C2" t="str">
-        <v>050-1234567</v>
-      </c>
-      <c r="D2" t="str">
-        <v>תל אביב</v>
-      </c>
-      <c r="E2" t="str">
-        <v>david.cohen@example.com</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>שרה</v>
-      </c>
-      <c r="B3" t="str">
-        <v>לוי</v>
-      </c>
-      <c r="C3" t="str">
-        <v>052-9876543</v>
-      </c>
-      <c r="D3" t="str">
-        <v>ירושלים</v>
-      </c>
-      <c r="E3" t="str">
-        <v>sarah.levi@example.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>משה</v>
-      </c>
-      <c r="B4" t="str">
-        <v>אברהם</v>
-      </c>
-      <c r="C4" t="str">
-        <v>054-5555555</v>
-      </c>
-      <c r="D4" t="str">
-        <v>חיפה</v>
-      </c>
-      <c r="E4" t="str">
-        <v>moshe.avraham@example.com</v>
+        <v>שם</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/public/samples/voter-template.xlsx
+++ b/app/public/samples/voter-template.xlsx
@@ -402,28 +402,28 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>מייל</v>
+        <v>שם</v>
       </c>
       <c r="B1" t="str">
+        <v>טלפון</v>
+      </c>
+      <c r="C1" t="str">
+        <v>שם משפחה</v>
+      </c>
+      <c r="D1" t="str">
         <v>עיר</v>
       </c>
-      <c r="C1" t="str">
-        <v>טלפון</v>
-      </c>
-      <c r="D1" t="str">
-        <v>שם משפחה</v>
-      </c>
       <c r="E1" t="str">
-        <v>שם</v>
+        <v>מייל</v>
       </c>
     </row>
   </sheetData>
